--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/similarity_3_parsed_output/tokens_perfect.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/similarity_3_parsed_output/tokens_perfect.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4778,7 +4778,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>Species name</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4790,31 +4790,31 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>area</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C243" t="n">
         <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Herbivores</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>microbes</t>
+          <t>Herbivores</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4850,12 +4850,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Rainfall</t>
+          <t>microbes</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4868,12 +4868,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>raindrops</t>
+          <t>Rainfall</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -4886,12 +4886,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>drought</t>
+          <t>raindrops</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -4904,12 +4904,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>drought</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4922,48 +4922,48 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>young</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CO2</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>toxicity</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4976,12 +4976,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>soil environment</t>
+          <t>toxicity</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4994,48 +4994,48 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Tree species richness</t>
+          <t>soil environment</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C254" t="n">
         <v>1</v>
       </c>
       <c r="D254" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>rogenhoferi</t>
+          <t>Tree species richness</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C255" t="n">
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>mutualism</t>
+          <t>rogenhoferi</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -5048,7 +5048,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>predation</t>
+          <t>mutualism</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5066,12 +5066,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>mineral soil layers</t>
+          <t>predation</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -5084,18 +5084,36 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
+          <t>mineral soil layers</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ENVIRONMENT</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
           <t>organic soil layers</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>ENVIRONMENT</t>
         </is>
       </c>
-      <c r="C259" t="n">
-        <v>1</v>
-      </c>
-      <c r="D259" t="n">
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
         <v>1</v>
       </c>
     </row>
